--- a/data/CH4/ButterbachBahl2002.xlsx
+++ b/data/CH4/ButterbachBahl2002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pate212/GitHub/field_lab_q10/data/CH4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guil098\Documents\R\GitHub\field_lab_q10\data\CH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E994B5-AA94-274A-A8BA-C92D52CDE133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8791E3-9B08-48B4-928F-09AE2EF45C65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="3460" windowWidth="25640" windowHeight="12620" xr2:uid="{286B7E63-64DB-7749-AA80-A0D260BBCB04}"/>
+    <workbookView xWindow="1900" yWindow="2510" windowWidth="19200" windowHeight="10140" xr2:uid="{286B7E63-64DB-7749-AA80-A0D260BBCB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -106,6 +105,9 @@
   </si>
   <si>
     <t>CH4</t>
+  </si>
+  <si>
+    <t>percent WFPS</t>
   </si>
 </sst>
 </file>
@@ -471,12 +473,15 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,13 +534,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
       <c r="F2">
         <v>1.44</v>
       </c>
@@ -552,13 +560,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
       <c r="F3">
         <v>1.33</v>
       </c>
@@ -578,12 +589,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
       </c>
       <c r="F4">
         <v>1.48</v>
